--- a/ML/ig/all-profiles.xlsx
+++ b/ML/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T07:33:44+00:00</t>
+    <t>2025-10-17T12:45:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/all-profiles.xlsx
+++ b/ML/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T12:45:54+00:00</t>
+    <t>2025-10-17T12:47:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/all-profiles.xlsx
+++ b/ML/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T12:47:41+00:00</t>
+    <t>2025-10-17T13:37:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/all-profiles.xlsx
+++ b/ML/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:37:49+00:00</t>
+    <t>2025-10-23T07:38:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/all-profiles.xlsx
+++ b/ML/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T07:38:48+00:00</t>
+    <t>2025-10-23T09:27:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/all-profiles.xlsx
+++ b/ML/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T09:27:39+00:00</t>
+    <t>2025-10-23T10:03:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/all-profiles.xlsx
+++ b/ML/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T10:03:30+00:00</t>
+    <t>2025-10-23T11:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/all-profiles.xlsx
+++ b/ML/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T11:11:53+00:00</t>
+    <t>2025-10-23T12:03:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/all-profiles.xlsx
+++ b/ML/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T12:03:29+00:00</t>
+    <t>2025-10-23T12:14:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/all-profiles.xlsx
+++ b/ML/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T12:14:06+00:00</t>
+    <t>2025-10-23T12:40:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/all-profiles.xlsx
+++ b/ML/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T12:40:30+00:00</t>
+    <t>2025-10-23T12:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/all-profiles.xlsx
+++ b/ML/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T12:50:40+00:00</t>
+    <t>2025-10-23T13:57:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
